--- a/medicine/Mort/La_Douleur_d'Andromaque/La_Douleur_d'Andromaque.xlsx
+++ b/medicine/Mort/La_Douleur_d'Andromaque/La_Douleur_d'Andromaque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Douleur_d%27Andromaque</t>
+          <t>La_Douleur_d'Andromaque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Douleur et les Regrets d'Andromaque sur le corps d'Hector son mari , couramment abrégé en La Douleur d'Andromaque est un tableau peint par Jacques-Louis David en 1783, inspiré d'un épisode de l’Iliade et représentant Andromaque pleurant sur le corps d'Hector, tué par Achille. Le tableau fut peint pour être présenté comme « morceau de réception » à l'agrément de Jacques-Louis David par l'Académie royale de peinture et de sculpture. Elle sera même reçue à l’unanimité au Salon du Louvre où elle fut présentée. Cette œuvre est une huile sur toile de grande taille, elle mesure 275 centimètres de hauteur sur une longueur de 203 centimètres. La toile est signée, datée en bas à gauche et l’on peut lire : « L. David 1783 ».
 Elle est actuellement exposée au musée du Louvre mais appartient à l’École Nationale Supérieure des Beaux-Arts (inventaire D.L. 1969-1) à qui l’œuvre a été donnée par un petit-fils de David : Jules David-Chassagnolle en 1886.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Douleur_d%27Andromaque</t>
+          <t>La_Douleur_d'Andromaque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Contexte et influence de l’œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il présente son morceau de réception le 22 août 1783, où il reçoit l’unanimité du jury.
 Plus tard il s’inspirera de son tableau pour faire Le serment des Horaces qui lui permettra d’acquérir une renommée importante.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Douleur_d%27Andromaque</t>
+          <t>La_Douleur_d'Andromaque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Thème et description de l'œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Douleur d’Andromaque est une peinture d’histoire s’inspirant de l’Iliade d’Homère. Dans cette scène, Andromaque, veuve, pleure son époux Hector, tué par Achille. 
 On peut voir une inscription en grec sur le candélabre placé à droite. Ce n’est pas la première fois que David introduit un texte dans l’un de ses tableaux. Par exemple, son tableau Le Bélisaire comporte aussi une inscription.
